--- a/data/PGx-card-layout.xlsx
+++ b/data/PGx-card-layout.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerome Dixon\Documents\R\Projects\PGx-Patient-Card\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{299BAD00-8990-4942-8764-C4D285A55F9B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C29B2546-E279-4C03-A076-8FC8E839AB32}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16560" yWindow="-103" windowWidth="16663" windowHeight="8863" activeTab="2" xr2:uid="{C6EAAE34-3A47-4660-8992-1CC702A64AB2}"/>
+    <workbookView xWindow="-9" yWindow="9154" windowWidth="16663" windowHeight="8863" activeTab="2" xr2:uid="{C6EAAE34-3A47-4660-8992-1CC702A64AB2}"/>
   </bookViews>
   <sheets>
     <sheet name="front" sheetId="1" r:id="rId1"/>
     <sheet name="back" sheetId="3" r:id="rId2"/>
-    <sheet name="Consolidated" sheetId="4" r:id="rId3"/>
+    <sheet name="consolidated" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="19">
   <si>
     <t>VCU PGx Research Study</t>
   </si>
@@ -81,6 +81,18 @@
   <si>
     <t>[QR Code]</t>
   </si>
+  <si>
+    <t>Icon1</t>
+  </si>
+  <si>
+    <t>Icon2</t>
+  </si>
+  <si>
+    <t>Variant|Count</t>
+  </si>
+  <si>
+    <t>Variant | Count</t>
+  </si>
 </sst>
 </file>
 
@@ -103,7 +115,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="33">
+  <borders count="45">
     <border>
       <left/>
       <right/>
@@ -286,9 +298,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
+      <left/>
       <right/>
       <top/>
       <bottom style="thin">
@@ -297,7 +307,187 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right/>
       <top/>
       <bottom style="thin">
@@ -306,7 +496,70 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -320,7 +573,9 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
@@ -330,7 +585,9 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -346,7 +603,9 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -356,7 +615,9 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -369,117 +630,30 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -489,14 +663,84 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -509,28 +753,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
@@ -539,86 +765,136 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -935,10 +1211,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{673D6F7D-C9FD-4437-860D-3CF83504280B}">
-  <dimension ref="B2:I12"/>
+  <dimension ref="B1:I11"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -946,145 +1222,158 @@
     <col min="9" max="9" width="11.23046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B3" s="1"/>
+    <row r="1" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B2" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="7"/>
+      <c r="D2" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="9"/>
+    </row>
+    <row r="3" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B3" s="6"/>
       <c r="C3" s="7"/>
-      <c r="D3" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="2"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B4" s="3"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="4"/>
-    </row>
-    <row r="5" spans="2:9" ht="27.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="3"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="15" t="s">
+      <c r="D3" s="31"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="9"/>
+    </row>
+    <row r="4" spans="2:9" ht="27.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B4" s="6"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="4"/>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B6" s="3"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="4"/>
-    </row>
-    <row r="7" spans="2:9" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="3"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="20" t="s">
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="9"/>
+    </row>
+    <row r="5" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B5" s="6"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="9"/>
+    </row>
+    <row r="6" spans="2:9" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B6" s="6"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="6"/>
-    </row>
-    <row r="8" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B8" s="33" t="s">
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="9"/>
+    </row>
+    <row r="7" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B7" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="34"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="22" t="s">
+      <c r="C7" s="15"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="I8" s="23"/>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B9" s="3"/>
-      <c r="C9" s="4"/>
+      <c r="I7" s="24"/>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B8" s="27"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="I8" s="20"/>
+    </row>
+    <row r="9" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B9" s="29"/>
+      <c r="C9" s="30"/>
       <c r="D9" s="13"/>
       <c r="E9" s="13"/>
       <c r="F9" s="13"/>
       <c r="G9" s="13"/>
-      <c r="H9" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="I9" s="25"/>
-    </row>
-    <row r="10" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="5"/>
-      <c r="C10" s="6"/>
+      <c r="H9" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="I9" s="22"/>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B10" s="10"/>
+      <c r="C10" s="11"/>
       <c r="D10" s="13"/>
       <c r="E10" s="13"/>
       <c r="F10" s="13"/>
       <c r="G10" s="13"/>
-      <c r="H10" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="I10" s="12"/>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B11" s="28"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="24" t="s">
+      <c r="H10" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="I11" s="25"/>
-    </row>
-    <row r="12" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="35" t="s">
+      <c r="I10" s="20"/>
+    </row>
+    <row r="11" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B11" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="36"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="36"/>
-      <c r="G12" s="37"/>
-      <c r="H12" s="27" t="s">
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="I12" s="26"/>
+      <c r="I11" s="26"/>
     </row>
   </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="D8:G11"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B12:G12"/>
+  <mergeCells count="25">
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="D6:G6"/>
+    <mergeCell ref="B11:G11"/>
+    <mergeCell ref="H8:I8"/>
     <mergeCell ref="H9:I9"/>
+    <mergeCell ref="H7:I7"/>
     <mergeCell ref="H10:I10"/>
-    <mergeCell ref="H8:I8"/>
     <mergeCell ref="H11:I11"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="B9:C10"/>
-    <mergeCell ref="B3:C7"/>
-    <mergeCell ref="H3:I7"/>
+    <mergeCell ref="B8:C9"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="D7:G10"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D2:G2"/>
     <mergeCell ref="D3:G3"/>
     <mergeCell ref="D4:G4"/>
-    <mergeCell ref="D5:G5"/>
-    <mergeCell ref="D6:G6"/>
-    <mergeCell ref="D7:G7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1092,10 +1381,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D712A55D-1825-4482-B684-36A923AE90B0}">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I9" sqref="I9:I11"/>
+      <selection activeCell="D8" sqref="D8:G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1103,159 +1392,166 @@
     <col min="2" max="2" width="12.07421875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.07421875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.23046875" customWidth="1"/>
+    <col min="9" max="9" width="13.23046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A1" s="31"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A2" s="31"/>
-      <c r="B2" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="30"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A3" s="31"/>
-      <c r="B3" s="32" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A1" s="2"/>
+    </row>
+    <row r="2" spans="1:11" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A2" s="2"/>
+      <c r="B2" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C2" s="37"/>
+      <c r="D2" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="32" t="s">
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="30"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A4" s="31"/>
-      <c r="B4" s="40"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="32"/>
-      <c r="J4" s="30"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A5" s="31"/>
-      <c r="B5" s="40"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="32"/>
-      <c r="J5" s="30"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A6" s="31"/>
-      <c r="B6" s="40"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="32"/>
-      <c r="J6" s="30"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A7" s="31"/>
-      <c r="B7" s="40"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="32"/>
-      <c r="J7" s="30"/>
-    </row>
-    <row r="8" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="31"/>
-      <c r="B8" s="40"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="38"/>
-      <c r="J8" s="30"/>
-    </row>
-    <row r="9" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="31"/>
-      <c r="B9" s="5" t="s">
+      <c r="I2" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="4"/>
+      <c r="K2" s="2"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A3" s="2"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="2"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A4" s="2"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="2"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A5" s="2"/>
+      <c r="B5" s="37"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="48"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="2"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A6" s="2"/>
+      <c r="B6" s="37"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="48"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="2"/>
+    </row>
+    <row r="7" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="2"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="55"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="2"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A8" s="2"/>
+      <c r="B8" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="39"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="44" t="s">
+      <c r="C8" s="37"/>
+      <c r="D8" s="51"/>
+      <c r="E8" s="52"/>
+      <c r="F8" s="52"/>
+      <c r="G8" s="52"/>
+      <c r="H8" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="J9" s="30"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A10" s="31"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="45"/>
-      <c r="J10" s="30"/>
-    </row>
-    <row r="11" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="31"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="46"/>
-      <c r="J11" s="30"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A12" s="31"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A13" s="31"/>
+      <c r="I8" s="43"/>
+      <c r="J8" s="50"/>
+      <c r="K8" s="50"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A9" s="2"/>
+      <c r="B9" s="37"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="44"/>
+      <c r="I9" s="45"/>
+      <c r="J9" s="50"/>
+      <c r="K9" s="50"/>
+    </row>
+    <row r="10" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="2"/>
+      <c r="B10" s="37"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="54"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="39"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="46"/>
+      <c r="I10" s="47"/>
+      <c r="J10" s="50"/>
+      <c r="K10" s="50"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A11" s="2"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A12" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="C4:H4"/>
-    <mergeCell ref="C5:H5"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="C8:H8"/>
+  <mergeCells count="17">
+    <mergeCell ref="D7:G7"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="D8:G10"/>
+    <mergeCell ref="H8:I10"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="D6:G6"/>
     <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:H11"/>
-    <mergeCell ref="I9:I11"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="C3:H3"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1263,283 +1559,319 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCC72EBE-3F00-41EC-99DC-60C3687AA15D}">
-  <dimension ref="B2:J22"/>
+  <dimension ref="B1:K21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="12.07421875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.61328125" customWidth="1"/>
+    <col min="9" max="9" width="13.69140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B3" s="1"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="8" t="s">
+    <row r="1" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B2" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="56"/>
+      <c r="D2" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="2"/>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B4" s="3"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="4"/>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B5" s="3"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="15" t="s">
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="9"/>
+    </row>
+    <row r="3" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B3" s="6"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="9"/>
+    </row>
+    <row r="4" spans="2:11" ht="33.450000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B4" s="6"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="4"/>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B6" s="3"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="4"/>
-    </row>
-    <row r="7" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="3"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="20" t="s">
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="65"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="9"/>
+    </row>
+    <row r="5" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B5" s="6"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="61"/>
+      <c r="G5" s="62"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="9"/>
+    </row>
+    <row r="6" spans="2:11" ht="33.450000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B6" s="6"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="6"/>
-    </row>
-    <row r="8" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B8" s="33" t="s">
+      <c r="E6" s="67"/>
+      <c r="F6" s="67"/>
+      <c r="G6" s="67"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="9"/>
+    </row>
+    <row r="7" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B7" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="34"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="22" t="s">
+      <c r="C7" s="68"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="I8" s="23"/>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B9" s="3"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="13"/>
+      <c r="I7" s="24"/>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B8" s="27"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="I8" s="20"/>
+    </row>
+    <row r="9" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B9" s="29"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="27"/>
       <c r="E9" s="13"/>
       <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="I9" s="25"/>
-    </row>
-    <row r="10" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="5"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="13"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="52" t="s">
+        <v>5</v>
+      </c>
+      <c r="I9" s="22"/>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B10" s="10"/>
+      <c r="C10" s="69"/>
+      <c r="D10" s="27"/>
       <c r="E10" s="13"/>
       <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="I10" s="12"/>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B11" s="28"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="24" t="s">
+      <c r="G10" s="28"/>
+      <c r="H10" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="I11" s="25"/>
-    </row>
-    <row r="12" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="35"/>
-      <c r="C12" s="36"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="36"/>
-      <c r="G12" s="37"/>
-      <c r="H12" s="27" t="s">
+      <c r="I10" s="20"/>
+    </row>
+    <row r="11" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B11" s="37"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="I12" s="26"/>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B13" s="8"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="30"/>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B14" s="32" t="s">
+      <c r="I11" s="38"/>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B12" s="31"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="70"/>
+      <c r="E12" s="70"/>
+      <c r="F12" s="70"/>
+      <c r="G12" s="70"/>
+      <c r="H12" s="37"/>
+      <c r="I12" s="37"/>
+      <c r="J12" s="1"/>
+    </row>
+    <row r="13" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B13" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="17" t="s">
+      <c r="C13" s="38"/>
+      <c r="D13" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="32" t="s">
+      <c r="E13" s="37"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="J14" s="30"/>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="I13" s="73" t="s">
+        <v>18</v>
+      </c>
+      <c r="J13" s="4"/>
+      <c r="K13" s="2"/>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B14" s="40"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="71"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="2"/>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B15" s="40"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="32"/>
-      <c r="J15" s="30"/>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="C15" s="40"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="2"/>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B16" s="40"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="32"/>
-      <c r="J16" s="30"/>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="C16" s="40"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="2"/>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B17" s="40"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="32"/>
-      <c r="J17" s="30"/>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="C17" s="40"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="2"/>
+    </row>
+    <row r="18" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B18" s="40"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="32"/>
-      <c r="J18" s="30"/>
-    </row>
-    <row r="19" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="40"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
+      <c r="C18" s="40"/>
+      <c r="D18" s="74"/>
+      <c r="E18" s="74"/>
+      <c r="F18" s="74"/>
+      <c r="G18" s="74"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="2"/>
+    </row>
+    <row r="19" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B19" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="30"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
       <c r="G19" s="9"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="38"/>
-      <c r="J19" s="30"/>
-    </row>
-    <row r="20" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C20" s="39"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="41" t="s">
+      <c r="H19" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="J20" s="30"/>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="C21" s="31"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="42"/>
-      <c r="J21" s="30"/>
-    </row>
-    <row r="22" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C22" s="30"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="43"/>
-      <c r="J22" s="30"/>
+      <c r="I19" s="76"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+    </row>
+    <row r="20" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B20" s="29"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="77"/>
+      <c r="I20" s="78"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+    </row>
+    <row r="21" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B21" s="29"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="41"/>
+      <c r="F21" s="41"/>
+      <c r="G21" s="30"/>
+      <c r="H21" s="79"/>
+      <c r="I21" s="80"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="26">
-    <mergeCell ref="C17:H17"/>
-    <mergeCell ref="C18:H18"/>
-    <mergeCell ref="C19:H19"/>
-    <mergeCell ref="B13:I13"/>
-    <mergeCell ref="I20:I22"/>
-    <mergeCell ref="C14:H14"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:H22"/>
-    <mergeCell ref="C15:H15"/>
-    <mergeCell ref="C16:H16"/>
-    <mergeCell ref="B12:G12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:G11"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="B9:C10"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="B3:C7"/>
+  <mergeCells count="45">
+    <mergeCell ref="D2:G2"/>
     <mergeCell ref="D3:G3"/>
-    <mergeCell ref="H3:I7"/>
     <mergeCell ref="D4:G4"/>
     <mergeCell ref="D5:G5"/>
     <mergeCell ref="D6:G6"/>
-    <mergeCell ref="D7:G7"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D15:G15"/>
+    <mergeCell ref="D16:G16"/>
+    <mergeCell ref="D17:G17"/>
+    <mergeCell ref="D18:G18"/>
+    <mergeCell ref="D19:G21"/>
+    <mergeCell ref="H19:I21"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="B8:C9"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="D7:G11"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="D13:G13"/>
+    <mergeCell ref="D14:G14"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
